--- a/Brooklyn_Nets_2025-26_stats.xlsx
+++ b/Brooklyn_Nets_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1850,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,172 +1865,692 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Danny Wolf</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Egor Dëmin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E.J. Liddell</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tyrese Martin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>23.33333333333333</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>21.375</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.6</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9.800000000000001</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8.1</v>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.1</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.7</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drake Powell</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.25</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.222222222222222</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Egor Dëmin</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.111111111111111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ben Saraf</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>E.J. Liddell</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Nolan Traore</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.333333333333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Danny Wolf</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tyson Etienne</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2036,6 +2560,717 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Danny Wolf</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Egor Dëmin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E.J. Liddell</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tyrese Martin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2057,13 +3292,204 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.33333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tyrese Martin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.222222222222222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Egor Dëmin</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.111111111111111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E.J. Liddell</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Danny Wolf</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Nic Claxton</t>
         </is>
       </c>
@@ -2215,6 +3641,388 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.555555555555555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tyrese Martin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Egor Dëmin</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.111111111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E.J. Liddell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Danny Wolf</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Egor Dëmin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tyrese Martin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E.J. Liddell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Danny Wolf</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tyson Etienne</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="B17" t="n">

--- a/Brooklyn_Nets_2025-26_stats.xlsx
+++ b/Brooklyn_Nets_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1130,66 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>18</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,7 +1204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,6 +1901,66 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1854,7 +1975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,6 +2672,66 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2565,7 +2746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3262,6 +3443,66 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.33333333333333</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="3">
@@ -3323,27 +3564,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.6</v>
+        <v>15.18181818181818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>9.727272727272727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.111111111111111</v>
       </c>
     </row>
     <row r="7">
@@ -3353,13 +3594,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Egor Dëmin</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3379,31 +3620,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drake Powell</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.222222222222222</v>
+        <v>6.454545454545454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egor Dëmin</t>
+          <t>Drake Powell</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.111111111111111</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13">
@@ -3413,7 +3654,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.5</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="14">
@@ -3443,7 +3684,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3453,7 +3694,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3735,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.7</v>
+        <v>3.727272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -3504,7 +3745,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.4</v>
+        <v>3.454545454545455</v>
       </c>
     </row>
     <row r="4">
@@ -3514,37 +3755,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.111111111111111</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ben Saraf</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.666666666666667</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Ben Saraf</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.555555555555555</v>
+        <v>2.428571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -3554,57 +3795,57 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danny Wolf</t>
+          <t>Drake Powell</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.7</v>
+        <v>1.727272727272727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Drake Powell</t>
+          <t>Nolan Traore</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nolan Traore</t>
+          <t>Danny Wolf</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3614,7 +3855,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
@@ -3624,7 +3865,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="16">
@@ -3685,7 +3926,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.555555555555555</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -3695,7 +3936,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>7.090909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -3711,21 +3952,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.909090909090909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.5</v>
+        <v>3.363636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -3735,7 +3976,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.111111111111111</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -3755,27 +3996,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.625</v>
+        <v>2.555555555555555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drake Powell</t>
+          <t>Ben Saraf</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ben Saraf</t>
+          <t>Drake Powell</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12">
@@ -3805,7 +4046,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.111111111111111</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="15">
@@ -3876,13 +4117,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.333333333333333</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3892,31 +4133,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Egor Dëmin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egor Dëmin</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.555555555555556</v>
+        <v>1.777777777777778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -3926,23 +4167,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.4</v>
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.333333333333333</v>
+        <v>1.272727272727273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Drake Powell</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3952,11 +4193,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drake Powell</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3986,7 +4227,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="14">
@@ -4002,17 +4243,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danny Wolf</t>
+          <t>Tyson Etienne</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tyson Etienne</t>
+          <t>Danny Wolf</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4027,6 +4268,283 @@
       </c>
       <c r="B17" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136</v>
+      </c>
+      <c r="E2" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>131</v>
+      </c>
+      <c r="E3" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>118</v>
+      </c>
+      <c r="E4" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>137</v>
+      </c>
+      <c r="E5" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>112</v>
+      </c>
+      <c r="D6" t="n">
+        <v>117</v>
+      </c>
+      <c r="E6" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>129</v>
+      </c>
+      <c r="E7" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>109</v>
+      </c>
+      <c r="D8" t="n">
+        <v>125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>112</v>
+      </c>
+      <c r="D9" t="n">
+        <v>103</v>
+      </c>
+      <c r="E9" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>107</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>98</v>
+      </c>
+      <c r="D11" t="n">
+        <v>134</v>
+      </c>
+      <c r="E11" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>119</v>
+      </c>
+      <c r="E12" t="n">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
